--- a/biology/Zoologie/Chindongo/Chindongo.xlsx
+++ b/biology/Zoologie/Chindongo/Chindongo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chindongo est un genre de poissons téléostéens de la famille des Cichlidae et de l'ordre des Cichliformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Chindongo sont endémiques du lac Malawi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Chindongo sont endémiques du lac Malawi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Chindongo sont des poissons d'une taille d'environ 100 mm[1]. L'espèce-type est Chingongo bellicosus, une nouvelle espèce décrite[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Chindongo sont des poissons d'une taille d'environ 100 mm. L'espèce-type est Chingongo bellicosus, une nouvelle espèce décrite.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Voici les espèces concernées par ce changement de taxon :
 Pseudotropheus ater
@@ -613,9 +631,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Li, Konings &amp; Stauffer, 2016 : A Revision of the Pseudotropheus elongatus species group (Teleostei:Cichlidae) With Description of a New Genus and Seven New Species. Zootaxa, vol. 4168, n. 2, p. 353-381[2] (texte intégral).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Li, Konings &amp; Stauffer, 2016 : A Revision of the Pseudotropheus elongatus species group (Teleostei:Cichlidae) With Description of a New Genus and Seven New Species. Zootaxa, vol. 4168, n. 2, p. 353-381 (texte intégral).</t>
         </is>
       </c>
     </row>
